--- a/LIQUIDOS.xlsx
+++ b/LIQUIDOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\projects\backend\delsol_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA1714D5-1394-4495-BD7A-349CE5EF3395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D79C63-EB7D-40D4-9063-5356F9A989F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{948E7EB8-ACEF-4D06-80A0-5FA5AD65E72D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{948E7EB8-ACEF-4D06-80A0-5FA5AD65E72D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
   <si>
     <t>Natura Express x 120 Ml</t>
   </si>
@@ -205,6 +203,105 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Opti-Free Express x 120 Ml</t>
+  </si>
+  <si>
+    <t>Opti-Free Express x 355 Ml</t>
+  </si>
+  <si>
+    <t>Opti-Free PureMoist x 120 Ml</t>
+  </si>
+  <si>
+    <t>Opti-Free PureMoist x 300 Ml</t>
+  </si>
+  <si>
+    <t>Aosept Plus x 360 Ml</t>
+  </si>
+  <si>
+    <t>Alcon Lagrimas II x 15 Ml</t>
+  </si>
+  <si>
+    <t>300653144701</t>
+  </si>
+  <si>
+    <t>300653144695</t>
+  </si>
+  <si>
+    <t>300651361162</t>
+  </si>
+  <si>
+    <t>300651361155</t>
+  </si>
+  <si>
+    <t>300650363754</t>
+  </si>
+  <si>
+    <t>5413895400698</t>
+  </si>
+  <si>
+    <t>Alcon</t>
+  </si>
+  <si>
+    <t>Dua Elite x 60 Ml</t>
+  </si>
+  <si>
+    <t>Dua Elite x 100 Ml</t>
+  </si>
+  <si>
+    <t>Dua Elite x 360 Ml</t>
+  </si>
+  <si>
+    <t>Arion Cronos x 60 Ml</t>
+  </si>
+  <si>
+    <t>Arion Cronos x 360 Ml</t>
+  </si>
+  <si>
+    <t>Naclens x 10</t>
+  </si>
+  <si>
+    <t>Acuaiss x 15 Ml</t>
+  </si>
+  <si>
+    <t>Acuaiss Unidosis x 20 unidosis</t>
+  </si>
+  <si>
+    <t>Acuaiss Ultra (SIN CONSERVANTES) x 10 Ml</t>
+  </si>
+  <si>
+    <t>Acuaiss Dual Gel x 10 Ml</t>
+  </si>
+  <si>
+    <t>Hidro Health RGP x 100 Ml</t>
+  </si>
+  <si>
+    <t>Hidro Health RGP - Limpieza Profunda x 30 Ml</t>
+  </si>
+  <si>
+    <t>Hidro Health RGP - Acondicionador x 100 Ml</t>
+  </si>
+  <si>
+    <t>8435080001647</t>
+  </si>
+  <si>
+    <t>8435080002347</t>
+  </si>
+  <si>
+    <t>8435080000961</t>
+  </si>
+  <si>
+    <t>8435080001616</t>
+  </si>
+  <si>
+    <t>8435080002057</t>
+  </si>
+  <si>
+    <t>843508001821</t>
+  </si>
+  <si>
+    <t>DISOP</t>
   </si>
 </sst>
 </file>
@@ -559,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3B1951-2379-4F0C-95F2-0E8812993AA5}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +1019,12 @@
       <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D22">
+        <v>560</v>
+      </c>
+      <c r="E22">
+        <v>949</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -933,6 +1036,12 @@
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D23">
+        <v>560</v>
+      </c>
+      <c r="E23">
+        <v>949</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -944,6 +1053,12 @@
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="D24">
+        <v>1662</v>
+      </c>
+      <c r="E24">
+        <v>2815</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -955,6 +1070,12 @@
       <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="D25">
+        <v>1662</v>
+      </c>
+      <c r="E25">
+        <v>2815</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -966,6 +1087,12 @@
       <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D26">
+        <v>450</v>
+      </c>
+      <c r="E26">
+        <v>900</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -977,6 +1104,12 @@
       <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D27">
+        <v>470</v>
+      </c>
+      <c r="E27">
+        <v>940</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -988,6 +1121,12 @@
       <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D28">
+        <v>480</v>
+      </c>
+      <c r="E28">
+        <v>960</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -999,6 +1138,12 @@
       <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D29">
+        <v>300</v>
+      </c>
+      <c r="E29">
+        <v>600</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1010,6 +1155,12 @@
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D30">
+        <v>720</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1020,6 +1171,335 @@
       </c>
       <c r="C31" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="D31">
+        <v>4850</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>1883</v>
+      </c>
+      <c r="E34">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>2831</v>
+      </c>
+      <c r="E35">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>2090</v>
+      </c>
+      <c r="E36">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37">
+        <v>2963</v>
+      </c>
+      <c r="E37">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>3648</v>
+      </c>
+      <c r="E38">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>1645</v>
+      </c>
+      <c r="E39">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>1248</v>
+      </c>
+      <c r="E42">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>2308</v>
+      </c>
+      <c r="E43">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>3471</v>
+      </c>
+      <c r="E44">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>1196</v>
+      </c>
+      <c r="E45">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46">
+        <v>5135</v>
+      </c>
+      <c r="E46">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47">
+        <v>2951</v>
+      </c>
+      <c r="E47">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48">
+        <v>2769</v>
+      </c>
+      <c r="E48">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49">
+        <v>3218</v>
+      </c>
+      <c r="E49">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>4063</v>
+      </c>
+      <c r="E50">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>4063</v>
+      </c>
+      <c r="E51">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>3094</v>
+      </c>
+      <c r="E52">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>2951</v>
+      </c>
+      <c r="E53">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>3094</v>
+      </c>
+      <c r="E54">
+        <v>4795</v>
       </c>
     </row>
   </sheetData>
